--- a/biology/Botanique/Galeopsis_tetrahit/Galeopsis_tetrahit.xlsx
+++ b/biology/Botanique/Galeopsis_tetrahit/Galeopsis_tetrahit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Galéopside à tige carrée, Ortie royale
-Galeopsis tetrahit, connu en français sous le nom de Galéopside à tige carrée[1], d'Ortie épineuse ou d'Ortie royale[1],[2] est une espèce de plantes herbacées de la famille des Lamiaceae.
+Galeopsis tetrahit, connu en français sous le nom de Galéopside à tige carrée, d'Ortie épineuse ou d'Ortie royale, est une espèce de plantes herbacées de la famille des Lamiaceae.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tiges carrées (caractère commun aux Lamiacées), hérissées de poils à pointe rouge.     
 Feuilles opposées, courtement pétiolées, au limbe gaufré, plus ou moins luisant dessus, de 2 à 10 cm de longueur, plus ou moins lancéolé ; marge dentée (presque crénelée) en dents de scie ; nervation arquée, saillant dessous. 
@@ -545,7 +559,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Galeopsis tetrahit se retrouve dans presque toute l'Europe, mais rare dans le Sud-est. C'est potentiellement une espèce invasive ailleurs dans le monde.
 Cette plante pousse en lisières forestière et dans les clairières.
@@ -577,7 +593,9 @@
           <t>Autres noms vernaculaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Galéopside à tige carrée, Ortie royale, Ortie épineuse, Chanvre bâtard, Herbe de Hongrie.
 </t>
